--- a/results/source_data/Figure1_data.xlsx
+++ b/results/source_data/Figure1_data.xlsx
@@ -12946,7 +12946,7 @@
         <v>37.245</v>
       </c>
       <c r="D484" t="n">
-        <v>16335</v>
+        <v>16524</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>47.034</v>
       </c>
       <c r="D506" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>37.516</v>
       </c>
       <c r="D526" t="n">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -14221,10 +14221,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -14239,10 +14239,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -14257,10 +14257,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -14293,10 +14293,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -14311,10 +14311,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>976</v>
+        <v>1018</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1298</v>
+        <v>1361</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -14365,10 +14365,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1692</v>
+        <v>1778</v>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -14383,10 +14383,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2201</v>
+        <v>2321</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -14401,10 +14401,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2820</v>
+        <v>2952</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3592</v>
+        <v>3733</v>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -14437,10 +14437,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4558</v>
+        <v>4710</v>
       </c>
       <c r="C15" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -14455,10 +14455,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6092</v>
+        <v>6281</v>
       </c>
       <c r="C16" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -14473,10 +14473,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8976</v>
+        <v>9199</v>
       </c>
       <c r="C17" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13955</v>
+        <v>14221</v>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -14509,10 +14509,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18813</v>
+        <v>19132</v>
       </c>
       <c r="C19" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -14527,10 +14527,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26163</v>
+        <v>26459</v>
       </c>
       <c r="C20" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33448</v>
+        <v>33747</v>
       </c>
       <c r="C21" t="n">
         <v>416</v>
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43522</v>
+        <v>43884</v>
       </c>
       <c r="C22" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -14581,10 +14581,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53530</v>
+        <v>53877</v>
       </c>
       <c r="C23" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -14599,10 +14599,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68166</v>
+        <v>68561</v>
       </c>
       <c r="C24" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -14617,10 +14617,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84567</v>
+        <v>84969</v>
       </c>
       <c r="C25" t="n">
-        <v>1261</v>
+        <v>1268</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102235</v>
+        <v>102598</v>
       </c>
       <c r="C26" t="n">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -14653,10 +14653,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122583</v>
+        <v>122971</v>
       </c>
       <c r="C27" t="n">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -14671,10 +14671,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141383</v>
+        <v>141740</v>
       </c>
       <c r="C28" t="n">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -14689,10 +14689,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163459</v>
+        <v>163692</v>
       </c>
       <c r="C29" t="n">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186488</v>
+        <v>186736</v>
       </c>
       <c r="C30" t="n">
-        <v>3847</v>
+        <v>3849</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -14725,10 +14725,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212886</v>
+        <v>213121</v>
       </c>
       <c r="C31" t="n">
-        <v>4786</v>
+        <v>4788</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -14743,10 +14743,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241612</v>
+        <v>241843</v>
       </c>
       <c r="C32" t="n">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -14761,10 +14761,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>276852</v>
+        <v>277047</v>
       </c>
       <c r="C33" t="n">
-        <v>7052</v>
+        <v>7054</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310556</v>
+        <v>310725</v>
       </c>
       <c r="C34" t="n">
-        <v>8232</v>
+        <v>8234</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -14797,10 +14797,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335290</v>
+        <v>335443</v>
       </c>
       <c r="C35" t="n">
-        <v>9537</v>
+        <v>9539</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>365117</v>
+        <v>365307</v>
       </c>
       <c r="C36" t="n">
         <v>10835</v>

--- a/results/source_data/Figure1_data.xlsx
+++ b/results/source_data/Figure1_data.xlsx
@@ -13284,7 +13284,7 @@
         <v>37.527</v>
       </c>
       <c r="D497" t="n">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33747</v>
+        <v>33746</v>
       </c>
       <c r="C21" t="n">
         <v>416</v>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="C22" t="n">
         <v>549</v>
@@ -14581,7 +14581,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53877</v>
+        <v>53875</v>
       </c>
       <c r="C23" t="n">
         <v>739</v>
@@ -14599,7 +14599,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68561</v>
+        <v>68559</v>
       </c>
       <c r="C24" t="n">
         <v>1004</v>
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84969</v>
+        <v>84967</v>
       </c>
       <c r="C25" t="n">
         <v>1268</v>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102598</v>
+        <v>102596</v>
       </c>
       <c r="C26" t="n">
         <v>1615</v>
@@ -14653,7 +14653,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122971</v>
+        <v>122969</v>
       </c>
       <c r="C27" t="n">
         <v>2112</v>
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141740</v>
+        <v>141738</v>
       </c>
       <c r="C28" t="n">
         <v>2461</v>
@@ -14689,7 +14689,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163692</v>
+        <v>163690</v>
       </c>
       <c r="C29" t="n">
         <v>3005</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186736</v>
+        <v>186734</v>
       </c>
       <c r="C30" t="n">
         <v>3849</v>
@@ -14725,7 +14725,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213121</v>
+        <v>213118</v>
       </c>
       <c r="C31" t="n">
         <v>4788</v>
@@ -14743,7 +14743,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241843</v>
+        <v>241840</v>
       </c>
       <c r="C32" t="n">
         <v>5877</v>
@@ -14761,7 +14761,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>277047</v>
+        <v>277044</v>
       </c>
       <c r="C33" t="n">
         <v>7054</v>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310725</v>
+        <v>310722</v>
       </c>
       <c r="C34" t="n">
         <v>8234</v>
@@ -14797,7 +14797,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335443</v>
+        <v>335440</v>
       </c>
       <c r="C35" t="n">
         <v>9539</v>
@@ -14815,7 +14815,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>365307</v>
+        <v>365304</v>
       </c>
       <c r="C36" t="n">
         <v>10835</v>

--- a/results/source_data/Figure1_data.xlsx
+++ b/results/source_data/Figure1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahking/gpl-covid/results/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C766A78-5D0C-0247-B14A-4167B0491486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F9A5C-41E5-A64C-A165-85273CA901CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22020" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="1940" windowWidth="22020" windowHeight="14460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1_case_maps" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="589">
   <si>
     <t>adm_name</t>
   </si>
@@ -1625,9 +1625,6 @@
   </si>
   <si>
     <t>deaths</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
   </si>
   <si>
     <t>2020-03-07</t>
@@ -1811,6 +1808,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2167,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2633,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B24">
         <v>82.121212963596193</v>
@@ -3455,7 +3453,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B65">
         <v>100.017893707683</v>
@@ -6915,7 +6913,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B238">
         <v>87.812561280779505</v>
@@ -8435,7 +8433,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B314">
         <v>4.8019999999999996</v>
@@ -8595,7 +8593,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B322">
         <v>4.5339999999999998</v>
@@ -9975,7 +9973,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B391">
         <v>12.04068608</v>
@@ -12783,7 +12781,7 @@
   <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13300,7 +13298,7 @@
         <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D37" t="s">
         <v>324</v>
@@ -13314,7 +13312,7 @@
         <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
         <v>324</v>
@@ -13328,7 +13326,7 @@
         <v>583</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D39" t="s">
         <v>324</v>
@@ -13342,7 +13340,7 @@
         <v>969</v>
       </c>
       <c r="C40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D40" t="s">
         <v>324</v>
@@ -13356,7 +13354,7 @@
         <v>1494</v>
       </c>
       <c r="C41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D41" t="s">
         <v>324</v>
@@ -13370,7 +13368,7 @@
         <v>2326</v>
       </c>
       <c r="C42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D42" t="s">
         <v>324</v>
@@ -13384,7 +13382,7 @@
         <v>2912</v>
       </c>
       <c r="C43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D43" t="s">
         <v>324</v>
@@ -13398,7 +13396,7 @@
         <v>3561</v>
       </c>
       <c r="C44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D44" t="s">
         <v>324</v>
@@ -13412,7 +13410,7 @@
         <v>4792</v>
       </c>
       <c r="C45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D45" t="s">
         <v>324</v>
@@ -13426,7 +13424,7 @@
         <v>5856</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D46" t="s">
         <v>324</v>
@@ -13440,7 +13438,7 @@
         <v>6584</v>
       </c>
       <c r="C47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
         <v>324</v>
@@ -13454,7 +13452,7 @@
         <v>7206</v>
       </c>
       <c r="C48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D48" t="s">
         <v>324</v>
@@ -13468,7 +13466,7 @@
         <v>8087</v>
       </c>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D49" t="s">
         <v>324</v>
@@ -13482,7 +13480,7 @@
         <v>9045</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D50" t="s">
         <v>324</v>
@@ -13496,7 +13494,7 @@
         <v>10120</v>
       </c>
       <c r="C51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D51" t="s">
         <v>324</v>
@@ -13510,7 +13508,7 @@
         <v>11409</v>
       </c>
       <c r="C52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D52" t="s">
         <v>324</v>
@@ -13524,7 +13522,7 @@
         <v>12774</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D53" t="s">
         <v>324</v>
@@ -13538,7 +13536,7 @@
         <v>13983</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
         <v>324</v>
@@ -13552,7 +13550,7 @@
         <v>15036</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D55" t="s">
         <v>324</v>
@@ -13566,7 +13564,7 @@
         <v>16214</v>
       </c>
       <c r="C56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D56" t="s">
         <v>324</v>
@@ -13580,7 +13578,7 @@
         <v>17406</v>
       </c>
       <c r="C57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D57" t="s">
         <v>324</v>
@@ -13594,7 +13592,7 @@
         <v>18452</v>
       </c>
       <c r="C58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D58" t="s">
         <v>324</v>
@@ -13608,7 +13606,7 @@
         <v>19689</v>
       </c>
       <c r="C59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
         <v>324</v>
@@ -13622,7 +13620,7 @@
         <v>20655</v>
       </c>
       <c r="C60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D60" t="s">
         <v>324</v>
@@ -13636,7 +13634,7 @@
         <v>21683</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" t="s">
         <v>324</v>
@@ -16022,23 +16020,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>534</v>
-      </c>
-      <c r="B232">
-        <v>80492</v>
-      </c>
-      <c r="C232">
-        <v>3042</v>
-      </c>
-      <c r="D232" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B233">
         <v>80566</v>
@@ -16052,7 +16036,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B234">
         <v>80608</v>
@@ -16066,7 +16050,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B235">
         <v>80644</v>
@@ -16080,7 +16064,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B236">
         <v>80663</v>
@@ -16094,7 +16078,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B237">
         <v>80681</v>
@@ -16108,7 +16092,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B238">
         <v>80689</v>
@@ -16122,7 +16106,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B239">
         <v>80694</v>
@@ -16136,7 +16120,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B240">
         <v>80710</v>
@@ -16150,7 +16134,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B241">
         <v>80718</v>
@@ -16164,7 +16148,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B242">
         <v>80723</v>
@@ -16178,7 +16162,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B243">
         <v>80727</v>
@@ -16192,7 +16176,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B244">
         <v>80735</v>
@@ -16206,7 +16190,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B245">
         <v>80743</v>
@@ -16220,7 +16204,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B246">
         <v>80764</v>
@@ -16234,7 +16218,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B247">
         <v>80770</v>
@@ -16262,7 +16246,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B249">
         <v>80791</v>
@@ -16276,7 +16260,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B250">
         <v>80812</v>
@@ -16304,7 +16288,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B252">
         <v>80850</v>
@@ -16318,7 +16302,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B253">
         <v>80876</v>
@@ -16332,7 +16316,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B254">
         <v>80893</v>
@@ -16346,7 +16330,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B255">
         <v>80917</v>
@@ -16360,7 +16344,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B256">
         <v>80936</v>
@@ -16374,7 +16358,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B257">
         <v>80949</v>
@@ -16388,7 +16372,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B258">
         <v>80961</v>
@@ -16402,7 +16386,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B259">
         <v>80973</v>
@@ -16416,7 +16400,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B260">
         <v>80985</v>
@@ -16430,7 +16414,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B261">
         <v>80990</v>
@@ -16444,7 +16428,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B262">
         <v>81145</v>
@@ -16480,7 +16464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16490,19 +16474,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16510,19 +16494,19 @@
         <v>482</v>
       </c>
       <c r="B2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" t="s">
         <v>568</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>569</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>570</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>571</v>
-      </c>
-      <c r="F2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16530,19 +16514,19 @@
         <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" t="s">
         <v>573</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>574</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>575</v>
-      </c>
-      <c r="F3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -16550,19 +16534,19 @@
         <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" t="s">
         <v>570</v>
       </c>
-      <c r="E4" t="s">
-        <v>571</v>
-      </c>
       <c r="F4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -16570,19 +16554,19 @@
         <v>464</v>
       </c>
       <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" t="s">
         <v>578</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>579</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" t="s">
         <v>580</v>
-      </c>
-      <c r="E5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F5" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -16590,19 +16574,19 @@
         <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -16610,19 +16594,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -16634,8 +16618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16645,19 +16629,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -16668,19 +16652,19 @@
         <v>43893</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G2" t="s">
         <v>482</v>
@@ -16691,10 +16675,10 @@
         <v>43894</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D3">
         <v>0.21</v>
@@ -16703,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G3" t="s">
         <v>482</v>
@@ -16714,19 +16698,19 @@
         <v>43895</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4">
         <v>0.2</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G4" t="s">
         <v>482</v>
@@ -16737,19 +16721,19 @@
         <v>43896</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G5" t="s">
         <v>482</v>
@@ -16760,19 +16744,19 @@
         <v>43897</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G6" t="s">
         <v>482</v>
@@ -16783,19 +16767,19 @@
         <v>43898</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G7" t="s">
         <v>482</v>
@@ -16812,13 +16796,13 @@
         <v>0.2</v>
       </c>
       <c r="D8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G8" t="s">
         <v>482</v>
@@ -16829,19 +16813,19 @@
         <v>43900</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D9">
         <v>0.28000000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G9" t="s">
         <v>482</v>
@@ -16864,7 +16848,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G10" t="s">
         <v>482</v>
@@ -16921,16 +16905,16 @@
         <v>43904</v>
       </c>
       <c r="B13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D13">
         <v>0.84</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F13">
         <v>0.66</v>
@@ -16947,7 +16931,7 @@
         <v>6.5</v>
       </c>
       <c r="C14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D14">
         <v>0.42</v>
@@ -17085,13 +17069,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D20">
         <v>0.630000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F20">
         <v>0.68999999999999795</v>
@@ -17108,13 +17092,13 @@
         <v>0.75</v>
       </c>
       <c r="C21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D21">
         <v>0.34999999999999798</v>
       </c>
       <c r="E21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F21">
         <v>1.71</v>
@@ -17160,7 +17144,7 @@
         <v>0.69999999999999896</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F23">
         <v>3.09</v>
@@ -17206,7 +17190,7 @@
         <v>0.56000000000000205</v>
       </c>
       <c r="E25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F25">
         <v>1.05</v>
@@ -17229,7 +17213,7 @@
         <v>0.48999999999999799</v>
       </c>
       <c r="E26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F26">
         <v>0.68999999999999795</v>
@@ -17252,7 +17236,7 @@
         <v>0.14000000000000101</v>
       </c>
       <c r="E27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F27">
         <v>0.87000000000000499</v>
@@ -17266,19 +17250,19 @@
         <v>43919</v>
       </c>
       <c r="B28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C28">
         <v>0.19999999999999901</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G28" t="s">
         <v>482</v>
@@ -17298,7 +17282,7 @@
         <v>0.35000000000000098</v>
       </c>
       <c r="E29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F29">
         <v>0.18</v>
@@ -17315,7 +17299,7 @@
         <v>0.5</v>
       </c>
       <c r="C30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D30">
         <v>0.20999999999999699</v>
@@ -17361,13 +17345,13 @@
         <v>0.125</v>
       </c>
       <c r="C32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D32">
         <v>0.14000000000000101</v>
       </c>
       <c r="E32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F32">
         <v>0.50999999999999801</v>
@@ -17390,7 +17374,7 @@
         <v>0.98</v>
       </c>
       <c r="E33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F33">
         <v>0.50999999999999801</v>
@@ -17407,16 +17391,16 @@
         <v>0.125</v>
       </c>
       <c r="C34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D34">
         <v>0.20999999999999699</v>
       </c>
       <c r="E34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G34" t="s">
         <v>482</v>
@@ -17427,19 +17411,19 @@
         <v>43926</v>
       </c>
       <c r="B35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D35">
         <v>0.21000000000000099</v>
       </c>
       <c r="E35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G35" t="s">
         <v>482</v>
@@ -17453,16 +17437,16 @@
         <v>0.75</v>
       </c>
       <c r="C36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D36">
         <v>0.35000000000000098</v>
       </c>
       <c r="E36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G36" t="s">
         <v>482</v>
@@ -17473,19 +17457,19 @@
         <v>43888</v>
       </c>
       <c r="B37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G37" t="s">
         <v>324</v>
@@ -17496,19 +17480,19 @@
         <v>43889</v>
       </c>
       <c r="B38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G38" t="s">
         <v>324</v>
@@ -17519,19 +17503,19 @@
         <v>43890</v>
       </c>
       <c r="B39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G39" t="s">
         <v>324</v>
@@ -17542,19 +17526,19 @@
         <v>43891</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C40">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G40" t="s">
         <v>324</v>
@@ -17565,19 +17549,19 @@
         <v>43892</v>
       </c>
       <c r="B41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G41" t="s">
         <v>324</v>
@@ -17588,19 +17572,19 @@
         <v>43893</v>
       </c>
       <c r="B42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E42">
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G42" t="s">
         <v>324</v>
@@ -17611,19 +17595,19 @@
         <v>43894</v>
       </c>
       <c r="B43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G43" t="s">
         <v>324</v>
@@ -17637,16 +17621,16 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G44" t="s">
         <v>324</v>
@@ -17657,19 +17641,19 @@
         <v>43896</v>
       </c>
       <c r="B45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G45" t="s">
         <v>324</v>
@@ -17680,19 +17664,19 @@
         <v>43897</v>
       </c>
       <c r="B46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G46" t="s">
         <v>324</v>
@@ -17703,19 +17687,19 @@
         <v>43898</v>
       </c>
       <c r="B47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G47" t="s">
         <v>324</v>
@@ -17726,19 +17710,19 @@
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G48" t="s">
         <v>324</v>
@@ -17749,19 +17733,19 @@
         <v>43900</v>
       </c>
       <c r="B49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G49" t="s">
         <v>324</v>
@@ -17772,19 +17756,19 @@
         <v>43901</v>
       </c>
       <c r="B50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G50" t="s">
         <v>324</v>
@@ -17795,19 +17779,19 @@
         <v>43902</v>
       </c>
       <c r="B51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G51" t="s">
         <v>324</v>
@@ -17818,19 +17802,19 @@
         <v>43903</v>
       </c>
       <c r="B52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D52">
         <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G52" t="s">
         <v>324</v>
@@ -17841,19 +17825,19 @@
         <v>43904</v>
       </c>
       <c r="B53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G53" t="s">
         <v>324</v>
@@ -17864,19 +17848,19 @@
         <v>43905</v>
       </c>
       <c r="B54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G54" t="s">
         <v>324</v>
@@ -17887,19 +17871,19 @@
         <v>43906</v>
       </c>
       <c r="B55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G55" t="s">
         <v>324</v>
@@ -17910,16 +17894,16 @@
         <v>43907</v>
       </c>
       <c r="B56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -17933,19 +17917,19 @@
         <v>43908</v>
       </c>
       <c r="B57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G57" t="s">
         <v>324</v>
@@ -17956,19 +17940,19 @@
         <v>43909</v>
       </c>
       <c r="B58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G58" t="s">
         <v>324</v>
@@ -17979,19 +17963,19 @@
         <v>43910</v>
       </c>
       <c r="B59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G59" t="s">
         <v>324</v>
@@ -18002,19 +17986,19 @@
         <v>43911</v>
       </c>
       <c r="B60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G60" t="s">
         <v>324</v>
@@ -18025,19 +18009,19 @@
         <v>43912</v>
       </c>
       <c r="B61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G61" t="s">
         <v>324</v>
@@ -18048,19 +18032,19 @@
         <v>43888</v>
       </c>
       <c r="B62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G62" t="s">
         <v>311</v>
@@ -18071,19 +18055,19 @@
         <v>43889</v>
       </c>
       <c r="B63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G63" t="s">
         <v>311</v>
@@ -18097,10 +18081,10 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -18117,19 +18101,19 @@
         <v>43891</v>
       </c>
       <c r="B65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G65" t="s">
         <v>311</v>
@@ -18140,19 +18124,19 @@
         <v>43892</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G66" t="s">
         <v>311</v>
@@ -18163,16 +18147,16 @@
         <v>43893</v>
       </c>
       <c r="B67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -18186,19 +18170,19 @@
         <v>43894</v>
       </c>
       <c r="B68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G68" t="s">
         <v>311</v>
@@ -18209,19 +18193,19 @@
         <v>43895</v>
       </c>
       <c r="B69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
         <v>311</v>
@@ -18232,16 +18216,16 @@
         <v>43896</v>
       </c>
       <c r="B70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D70">
         <v>0.5</v>
       </c>
       <c r="E70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -18255,19 +18239,19 @@
         <v>43897</v>
       </c>
       <c r="B71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G71" t="s">
         <v>311</v>
@@ -18278,13 +18262,13 @@
         <v>43898</v>
       </c>
       <c r="B72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -18301,10 +18285,10 @@
         <v>43899</v>
       </c>
       <c r="B73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D73">
         <v>0.5</v>
@@ -18313,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
         <v>311</v>
@@ -18324,19 +18308,19 @@
         <v>43900</v>
       </c>
       <c r="B74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G74" t="s">
         <v>311</v>
@@ -18347,10 +18331,10 @@
         <v>43901</v>
       </c>
       <c r="B75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D75">
         <v>6.5</v>
@@ -18359,7 +18343,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G75" t="s">
         <v>311</v>
@@ -18370,19 +18354,19 @@
         <v>43902</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G76" t="s">
         <v>311</v>
@@ -18393,19 +18377,19 @@
         <v>43903</v>
       </c>
       <c r="B77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D77">
         <v>0.5</v>
       </c>
       <c r="E77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G77" t="s">
         <v>311</v>
@@ -18416,19 +18400,19 @@
         <v>43904</v>
       </c>
       <c r="B78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -18439,19 +18423,19 @@
         <v>43905</v>
       </c>
       <c r="B79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G79" t="s">
         <v>311</v>
@@ -18462,19 +18446,19 @@
         <v>43906</v>
       </c>
       <c r="B80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G80" t="s">
         <v>311</v>
@@ -18485,19 +18469,19 @@
         <v>43907</v>
       </c>
       <c r="B81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C81">
         <v>4.2900001300000001</v>
       </c>
       <c r="D81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G81" t="s">
         <v>311</v>
@@ -18508,19 +18492,19 @@
         <v>43908</v>
       </c>
       <c r="B82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G82" t="s">
         <v>311</v>
@@ -18531,19 +18515,19 @@
         <v>43909</v>
       </c>
       <c r="B83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C83">
         <v>0.34000001000000002</v>
       </c>
       <c r="D83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -18554,19 +18538,19 @@
         <v>43910</v>
       </c>
       <c r="B84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G84" t="s">
         <v>311</v>
@@ -18577,19 +18561,19 @@
         <v>43911</v>
       </c>
       <c r="B85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C85">
         <v>0.34000001000000102</v>
       </c>
       <c r="D85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G85" t="s">
         <v>311</v>
@@ -18600,19 +18584,19 @@
         <v>43912</v>
       </c>
       <c r="B86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G86" t="s">
         <v>311</v>
@@ -18623,19 +18607,19 @@
         <v>43913</v>
       </c>
       <c r="B87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C87">
         <v>8.0299998499999994</v>
       </c>
       <c r="D87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G87" t="s">
         <v>311</v>
@@ -18646,19 +18630,19 @@
         <v>43914</v>
       </c>
       <c r="B88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G88" t="s">
         <v>311</v>
@@ -18669,19 +18653,19 @@
         <v>43915</v>
       </c>
       <c r="B89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G89" t="s">
         <v>311</v>
@@ -18692,19 +18676,19 @@
         <v>43878</v>
       </c>
       <c r="B90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G90" t="s">
         <v>464</v>
@@ -18715,19 +18699,19 @@
         <v>43879</v>
       </c>
       <c r="B91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G91" t="s">
         <v>464</v>
@@ -18738,19 +18722,19 @@
         <v>43880</v>
       </c>
       <c r="B92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G92" t="s">
         <v>464</v>
@@ -18761,19 +18745,19 @@
         <v>43881</v>
       </c>
       <c r="B93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G93" t="s">
         <v>464</v>
@@ -18784,19 +18768,19 @@
         <v>43882</v>
       </c>
       <c r="B94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G94" t="s">
         <v>464</v>
@@ -18807,19 +18791,19 @@
         <v>43883</v>
       </c>
       <c r="B95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G95" t="s">
         <v>464</v>
@@ -18830,19 +18814,19 @@
         <v>43884</v>
       </c>
       <c r="B96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G96" t="s">
         <v>464</v>
@@ -18853,19 +18837,19 @@
         <v>43885</v>
       </c>
       <c r="B97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G97" t="s">
         <v>464</v>
@@ -18876,19 +18860,19 @@
         <v>43886</v>
       </c>
       <c r="B98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G98" t="s">
         <v>464</v>
@@ -18899,19 +18883,19 @@
         <v>43887</v>
       </c>
       <c r="B99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G99" t="s">
         <v>464</v>
@@ -18922,19 +18906,19 @@
         <v>43888</v>
       </c>
       <c r="B100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G100" t="s">
         <v>464</v>
@@ -18945,19 +18929,19 @@
         <v>43889</v>
       </c>
       <c r="B101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G101" t="s">
         <v>464</v>
@@ -18968,19 +18952,19 @@
         <v>43890</v>
       </c>
       <c r="B102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D102">
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G102" t="s">
         <v>464</v>
@@ -18991,19 +18975,19 @@
         <v>43891</v>
       </c>
       <c r="B103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G103" t="s">
         <v>464</v>
@@ -19014,19 +18998,19 @@
         <v>43892</v>
       </c>
       <c r="B104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G104" t="s">
         <v>464</v>
@@ -19037,19 +19021,19 @@
         <v>43893</v>
       </c>
       <c r="B105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G105" t="s">
         <v>464</v>
@@ -19060,19 +19044,19 @@
         <v>43894</v>
       </c>
       <c r="B106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G106" t="s">
         <v>464</v>
@@ -19083,19 +19067,19 @@
         <v>43895</v>
       </c>
       <c r="B107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G107" t="s">
         <v>464</v>
@@ -19106,19 +19090,19 @@
         <v>43896</v>
       </c>
       <c r="B108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G108" t="s">
         <v>464</v>
@@ -19129,19 +19113,19 @@
         <v>43897</v>
       </c>
       <c r="B109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G109" t="s">
         <v>464</v>
@@ -19152,19 +19136,19 @@
         <v>43898</v>
       </c>
       <c r="B110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G110" t="s">
         <v>464</v>
@@ -19175,19 +19159,19 @@
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G111" t="s">
         <v>464</v>
@@ -19198,19 +19182,19 @@
         <v>43900</v>
       </c>
       <c r="B112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G112" t="s">
         <v>464</v>
@@ -19221,16 +19205,16 @@
         <v>43901</v>
       </c>
       <c r="B113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -19244,19 +19228,19 @@
         <v>43902</v>
       </c>
       <c r="B114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G114" t="s">
         <v>464</v>
@@ -19267,19 +19251,19 @@
         <v>43903</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G115" t="s">
         <v>464</v>
@@ -19290,19 +19274,19 @@
         <v>43904</v>
       </c>
       <c r="B116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G116" t="s">
         <v>464</v>
@@ -19316,16 +19300,16 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G117" t="s">
         <v>464</v>
@@ -19336,19 +19320,19 @@
         <v>43906</v>
       </c>
       <c r="B118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G118" t="s">
         <v>464</v>
@@ -19359,19 +19343,19 @@
         <v>43907</v>
       </c>
       <c r="B119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G119" t="s">
         <v>464</v>
@@ -19382,16 +19366,16 @@
         <v>43908</v>
       </c>
       <c r="B120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -19405,19 +19389,19 @@
         <v>43909</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G121" t="s">
         <v>464</v>
@@ -19428,19 +19412,19 @@
         <v>43910</v>
       </c>
       <c r="B122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G122" t="s">
         <v>464</v>
@@ -19451,19 +19435,19 @@
         <v>43911</v>
       </c>
       <c r="B123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G123" t="s">
         <v>464</v>
@@ -19474,19 +19458,19 @@
         <v>43912</v>
       </c>
       <c r="B124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G124" t="s">
         <v>464</v>
@@ -19497,19 +19481,19 @@
         <v>43913</v>
       </c>
       <c r="B125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G125" t="s">
         <v>464</v>
@@ -19520,19 +19504,19 @@
         <v>43914</v>
       </c>
       <c r="B126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G126" t="s">
         <v>464</v>
@@ -19543,19 +19527,19 @@
         <v>43915</v>
       </c>
       <c r="B127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G127" t="s">
         <v>464</v>
@@ -19566,19 +19550,19 @@
         <v>43916</v>
       </c>
       <c r="B128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G128" t="s">
         <v>464</v>
@@ -19589,19 +19573,19 @@
         <v>43917</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G129" t="s">
         <v>464</v>
@@ -19612,19 +19596,19 @@
         <v>43918</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G130" t="s">
         <v>464</v>
@@ -19635,19 +19619,19 @@
         <v>43919</v>
       </c>
       <c r="B131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G131" t="s">
         <v>464</v>
@@ -19658,19 +19642,19 @@
         <v>43920</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G132" t="s">
         <v>464</v>
@@ -19681,19 +19665,19 @@
         <v>43921</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G133" t="s">
         <v>464</v>
@@ -19704,19 +19688,19 @@
         <v>43922</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G134" t="s">
         <v>464</v>
@@ -19727,19 +19711,19 @@
         <v>43923</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G135" t="s">
         <v>464</v>
@@ -19750,19 +19734,19 @@
         <v>43924</v>
       </c>
       <c r="B136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G136" t="s">
         <v>464</v>
@@ -19773,19 +19757,19 @@
         <v>43925</v>
       </c>
       <c r="B137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G137" t="s">
         <v>464</v>
@@ -19796,19 +19780,19 @@
         <v>43926</v>
       </c>
       <c r="B138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G138" t="s">
         <v>464</v>
@@ -19819,19 +19803,19 @@
         <v>43927</v>
       </c>
       <c r="B139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G139" t="s">
         <v>464</v>
@@ -19845,16 +19829,16 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G140" t="s">
         <v>357</v>
@@ -19868,16 +19852,16 @@
         <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G141" t="s">
         <v>357</v>
@@ -19891,16 +19875,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G142" t="s">
         <v>357</v>
@@ -19911,19 +19895,19 @@
         <v>43889</v>
       </c>
       <c r="B143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G143" t="s">
         <v>357</v>
@@ -19937,16 +19921,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G144" t="s">
         <v>357</v>
@@ -19960,16 +19944,16 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G145" t="s">
         <v>357</v>
@@ -19980,19 +19964,19 @@
         <v>43892</v>
       </c>
       <c r="B146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G146" t="s">
         <v>357</v>
@@ -20003,19 +19987,19 @@
         <v>43893</v>
       </c>
       <c r="B147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G147" t="s">
         <v>357</v>
@@ -20026,19 +20010,19 @@
         <v>43894</v>
       </c>
       <c r="B148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G148" t="s">
         <v>357</v>
@@ -20052,16 +20036,16 @@
         <v>56</v>
       </c>
       <c r="C149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G149" t="s">
         <v>357</v>
@@ -20072,19 +20056,19 @@
         <v>43896</v>
       </c>
       <c r="B150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G150" t="s">
         <v>357</v>
@@ -20095,19 +20079,19 @@
         <v>43897</v>
       </c>
       <c r="B151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G151" t="s">
         <v>357</v>
@@ -20118,7 +20102,7 @@
         <v>43898</v>
       </c>
       <c r="B152" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C152">
         <v>105</v>
@@ -20141,19 +20125,19 @@
         <v>43899</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G153" t="s">
         <v>357</v>
@@ -20164,10 +20148,10 @@
         <v>43900</v>
       </c>
       <c r="B154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D154">
         <v>41.5</v>
@@ -20176,7 +20160,7 @@
         <v>27.72</v>
       </c>
       <c r="F154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G154" t="s">
         <v>357</v>
@@ -20187,19 +20171,19 @@
         <v>43901</v>
       </c>
       <c r="B155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E155">
         <v>36.380000000000003</v>
       </c>
       <c r="F155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G155" t="s">
         <v>357</v>
@@ -20210,19 +20194,19 @@
         <v>43902</v>
       </c>
       <c r="B156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G156" t="s">
         <v>357</v>
@@ -20233,19 +20217,19 @@
         <v>43903</v>
       </c>
       <c r="B157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G157" t="s">
         <v>357</v>
@@ -20256,19 +20240,19 @@
         <v>43904</v>
       </c>
       <c r="B158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G158" t="s">
         <v>357</v>
@@ -20279,19 +20263,19 @@
         <v>43905</v>
       </c>
       <c r="B159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G159" t="s">
         <v>357</v>
@@ -20302,19 +20286,19 @@
         <v>43906</v>
       </c>
       <c r="B160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G160" t="s">
         <v>357</v>
@@ -20325,19 +20309,19 @@
         <v>43907</v>
       </c>
       <c r="B161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G161" t="s">
         <v>357</v>
@@ -20348,19 +20332,19 @@
         <v>43908</v>
       </c>
       <c r="B162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G162" t="s">
         <v>357</v>
@@ -20371,19 +20355,19 @@
         <v>43909</v>
       </c>
       <c r="B163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G163" t="s">
         <v>357</v>
@@ -20394,19 +20378,19 @@
         <v>43910</v>
       </c>
       <c r="B164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G164" t="s">
         <v>357</v>
@@ -20417,19 +20401,19 @@
         <v>43911</v>
       </c>
       <c r="B165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G165" t="s">
         <v>357</v>
@@ -20440,10 +20424,10 @@
         <v>43912</v>
       </c>
       <c r="B166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D166">
         <v>53.5</v>
@@ -20452,7 +20436,7 @@
         <v>3.9600000000000102</v>
       </c>
       <c r="F166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G166" t="s">
         <v>357</v>
@@ -20463,19 +20447,19 @@
         <v>43913</v>
       </c>
       <c r="B167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G167" t="s">
         <v>357</v>
@@ -20486,19 +20470,19 @@
         <v>43914</v>
       </c>
       <c r="B168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G168" t="s">
         <v>357</v>
@@ -20509,19 +20493,19 @@
         <v>43915</v>
       </c>
       <c r="B169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G169" t="s">
         <v>357</v>
@@ -20532,19 +20516,19 @@
         <v>43916</v>
       </c>
       <c r="B170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G170" t="s">
         <v>357</v>
@@ -20555,19 +20539,19 @@
         <v>43917</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G171" t="s">
         <v>357</v>
@@ -20578,19 +20562,19 @@
         <v>43918</v>
       </c>
       <c r="B172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G172" t="s">
         <v>357</v>
@@ -20601,19 +20585,19 @@
         <v>43919</v>
       </c>
       <c r="B173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G173" t="s">
         <v>357</v>
@@ -20624,19 +20608,19 @@
         <v>43920</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G174" t="s">
         <v>357</v>
@@ -20647,19 +20631,19 @@
         <v>43921</v>
       </c>
       <c r="B175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G175" t="s">
         <v>357</v>
@@ -20670,19 +20654,19 @@
         <v>43922</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G176" t="s">
         <v>357</v>
@@ -20693,19 +20677,19 @@
         <v>43923</v>
       </c>
       <c r="B177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G177" t="s">
         <v>357</v>
@@ -20716,19 +20700,19 @@
         <v>43924</v>
       </c>
       <c r="B178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G178" t="s">
         <v>357</v>
@@ -20739,19 +20723,19 @@
         <v>43925</v>
       </c>
       <c r="B179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G179" t="s">
         <v>357</v>
@@ -20762,19 +20746,19 @@
         <v>43926</v>
       </c>
       <c r="B180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G180" t="s">
         <v>357</v>
@@ -20785,19 +20769,19 @@
         <v>43927</v>
       </c>
       <c r="B181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G181" t="s">
         <v>357</v>
@@ -20808,19 +20792,19 @@
         <v>43846</v>
       </c>
       <c r="B182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G182" t="s">
         <v>7</v>
@@ -20831,19 +20815,19 @@
         <v>43847</v>
       </c>
       <c r="B183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G183" t="s">
         <v>7</v>
@@ -20854,19 +20838,19 @@
         <v>43848</v>
       </c>
       <c r="B184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G184" t="s">
         <v>7</v>
@@ -20877,19 +20861,19 @@
         <v>43849</v>
       </c>
       <c r="B185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G185" t="s">
         <v>7</v>
@@ -20900,19 +20884,19 @@
         <v>43850</v>
       </c>
       <c r="B186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G186" t="s">
         <v>7</v>
@@ -20923,19 +20907,19 @@
         <v>43851</v>
       </c>
       <c r="B187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G187" t="s">
         <v>7</v>
@@ -20946,19 +20930,19 @@
         <v>43852</v>
       </c>
       <c r="B188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G188" t="s">
         <v>7</v>
@@ -20972,16 +20956,16 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D189">
         <v>31</v>
       </c>
       <c r="E189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G189" t="s">
         <v>7</v>
@@ -20995,16 +20979,16 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D190">
         <v>168</v>
       </c>
       <c r="E190" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F190" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G190" t="s">
         <v>7</v>
@@ -21015,19 +20999,19 @@
         <v>43855</v>
       </c>
       <c r="B191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D191">
         <v>138</v>
       </c>
       <c r="E191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G191" t="s">
         <v>7</v>
@@ -21038,19 +21022,19 @@
         <v>43856</v>
       </c>
       <c r="B192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G192" t="s">
         <v>7</v>
@@ -21067,13 +21051,13 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G193" t="s">
         <v>7</v>
@@ -21087,16 +21071,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G194" t="s">
         <v>7</v>
@@ -21116,10 +21100,10 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F195" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G195" t="s">
         <v>7</v>
@@ -21130,19 +21114,19 @@
         <v>43860</v>
       </c>
       <c r="B196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G196" t="s">
         <v>7</v>
@@ -21159,13 +21143,13 @@
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G197" t="s">
         <v>7</v>
@@ -21176,19 +21160,19 @@
         <v>43862</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G198" t="s">
         <v>7</v>
@@ -21205,13 +21189,13 @@
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G199" t="s">
         <v>7</v>
@@ -21228,13 +21212,13 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G200" t="s">
         <v>7</v>
@@ -21251,13 +21235,13 @@
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G201" t="s">
         <v>7</v>
@@ -21274,13 +21258,13 @@
         <v>33</v>
       </c>
       <c r="D202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G202" t="s">
         <v>7</v>
@@ -21297,13 +21281,13 @@
         <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G203" t="s">
         <v>7</v>
@@ -21320,13 +21304,13 @@
         <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G204" t="s">
         <v>7</v>
@@ -21343,13 +21327,13 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G205" t="s">
         <v>7</v>
@@ -21366,13 +21350,13 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G206" t="s">
         <v>7</v>
@@ -21389,13 +21373,13 @@
         <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E207" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F207" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G207" t="s">
         <v>7</v>
@@ -21406,19 +21390,19 @@
         <v>43872</v>
       </c>
       <c r="B208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G208" t="s">
         <v>7</v>
@@ -21435,13 +21419,13 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G209" t="s">
         <v>7</v>
@@ -21452,19 +21436,19 @@
         <v>43874</v>
       </c>
       <c r="B210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G210" t="s">
         <v>7</v>
@@ -21475,19 +21459,19 @@
         <v>43875</v>
       </c>
       <c r="B211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G211" t="s">
         <v>7</v>
@@ -21498,19 +21482,19 @@
         <v>43876</v>
       </c>
       <c r="B212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G212" t="s">
         <v>7</v>
@@ -21521,19 +21505,19 @@
         <v>43877</v>
       </c>
       <c r="B213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G213" t="s">
         <v>7</v>
@@ -21544,19 +21528,19 @@
         <v>43878</v>
       </c>
       <c r="B214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G214" t="s">
         <v>7</v>
@@ -21567,19 +21551,19 @@
         <v>43879</v>
       </c>
       <c r="B215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G215" t="s">
         <v>7</v>
@@ -21590,19 +21574,19 @@
         <v>43880</v>
       </c>
       <c r="B216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G216" t="s">
         <v>7</v>
@@ -21613,19 +21597,19 @@
         <v>43881</v>
       </c>
       <c r="B217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G217" t="s">
         <v>7</v>
@@ -21636,19 +21620,19 @@
         <v>43882</v>
       </c>
       <c r="B218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G218" t="s">
         <v>7</v>
@@ -21659,19 +21643,19 @@
         <v>43883</v>
       </c>
       <c r="B219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G219" t="s">
         <v>7</v>
@@ -21682,19 +21666,19 @@
         <v>43884</v>
       </c>
       <c r="B220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G220" t="s">
         <v>7</v>
@@ -21705,19 +21689,19 @@
         <v>43885</v>
       </c>
       <c r="B221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G221" t="s">
         <v>7</v>
@@ -21728,19 +21712,19 @@
         <v>43886</v>
       </c>
       <c r="B222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G222" t="s">
         <v>7</v>
@@ -21751,19 +21735,19 @@
         <v>43887</v>
       </c>
       <c r="B223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G223" t="s">
         <v>7</v>
@@ -21774,19 +21758,19 @@
         <v>43888</v>
       </c>
       <c r="B224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G224" t="s">
         <v>7</v>
@@ -21797,19 +21781,19 @@
         <v>43889</v>
       </c>
       <c r="B225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G225" t="s">
         <v>7</v>
@@ -21820,19 +21804,19 @@
         <v>43890</v>
       </c>
       <c r="B226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G226" t="s">
         <v>7</v>
@@ -21843,19 +21827,19 @@
         <v>43891</v>
       </c>
       <c r="B227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G227" t="s">
         <v>7</v>
@@ -21866,19 +21850,19 @@
         <v>43892</v>
       </c>
       <c r="B228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G228" t="s">
         <v>7</v>
@@ -21889,19 +21873,19 @@
         <v>43893</v>
       </c>
       <c r="B229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G229" t="s">
         <v>7</v>
@@ -21912,19 +21896,19 @@
         <v>43894</v>
       </c>
       <c r="B230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G230" t="s">
         <v>7</v>
@@ -21935,19 +21919,19 @@
         <v>43895</v>
       </c>
       <c r="B231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G231" t="s">
         <v>7</v>

--- a/results/source_data/Figure1_data.xlsx
+++ b/results/source_data/Figure1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahking/gpl-covid/results/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F9A5C-41E5-A64C-A165-85273CA901CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EF3D35-598A-724A-8AF2-80CF428BE8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1940" windowWidth="22020" windowHeight="14460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="560" windowWidth="22020" windowHeight="14460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1_case_maps" sheetId="1" r:id="rId1"/>
@@ -16618,8 +16618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/results/source_data/Figure1_data.xlsx
+++ b/results/source_data/Figure1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahking/gpl-covid/results/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C766A78-5D0C-0247-B14A-4167B0491486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EF3D35-598A-724A-8AF2-80CF428BE8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22020" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="560" windowWidth="22020" windowHeight="14460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1_case_maps" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="589">
   <si>
     <t>adm_name</t>
   </si>
@@ -1625,9 +1625,6 @@
   </si>
   <si>
     <t>deaths</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
   </si>
   <si>
     <t>2020-03-07</t>
@@ -1811,6 +1808,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2167,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2633,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B24">
         <v>82.121212963596193</v>
@@ -3455,7 +3453,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B65">
         <v>100.017893707683</v>
@@ -6915,7 +6913,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B238">
         <v>87.812561280779505</v>
@@ -8435,7 +8433,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B314">
         <v>4.8019999999999996</v>
@@ -8595,7 +8593,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B322">
         <v>4.5339999999999998</v>
@@ -9975,7 +9973,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B391">
         <v>12.04068608</v>
@@ -12783,7 +12781,7 @@
   <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13300,7 +13298,7 @@
         <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D37" t="s">
         <v>324</v>
@@ -13314,7 +13312,7 @@
         <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
         <v>324</v>
@@ -13328,7 +13326,7 @@
         <v>583</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D39" t="s">
         <v>324</v>
@@ -13342,7 +13340,7 @@
         <v>969</v>
       </c>
       <c r="C40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D40" t="s">
         <v>324</v>
@@ -13356,7 +13354,7 @@
         <v>1494</v>
       </c>
       <c r="C41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D41" t="s">
         <v>324</v>
@@ -13370,7 +13368,7 @@
         <v>2326</v>
       </c>
       <c r="C42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D42" t="s">
         <v>324</v>
@@ -13384,7 +13382,7 @@
         <v>2912</v>
       </c>
       <c r="C43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D43" t="s">
         <v>324</v>
@@ -13398,7 +13396,7 @@
         <v>3561</v>
       </c>
       <c r="C44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D44" t="s">
         <v>324</v>
@@ -13412,7 +13410,7 @@
         <v>4792</v>
       </c>
       <c r="C45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D45" t="s">
         <v>324</v>
@@ -13426,7 +13424,7 @@
         <v>5856</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D46" t="s">
         <v>324</v>
@@ -13440,7 +13438,7 @@
         <v>6584</v>
       </c>
       <c r="C47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
         <v>324</v>
@@ -13454,7 +13452,7 @@
         <v>7206</v>
       </c>
       <c r="C48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D48" t="s">
         <v>324</v>
@@ -13468,7 +13466,7 @@
         <v>8087</v>
       </c>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D49" t="s">
         <v>324</v>
@@ -13482,7 +13480,7 @@
         <v>9045</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D50" t="s">
         <v>324</v>
@@ -13496,7 +13494,7 @@
         <v>10120</v>
       </c>
       <c r="C51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D51" t="s">
         <v>324</v>
@@ -13510,7 +13508,7 @@
         <v>11409</v>
       </c>
       <c r="C52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D52" t="s">
         <v>324</v>
@@ -13524,7 +13522,7 @@
         <v>12774</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D53" t="s">
         <v>324</v>
@@ -13538,7 +13536,7 @@
         <v>13983</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
         <v>324</v>
@@ -13552,7 +13550,7 @@
         <v>15036</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D55" t="s">
         <v>324</v>
@@ -13566,7 +13564,7 @@
         <v>16214</v>
       </c>
       <c r="C56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D56" t="s">
         <v>324</v>
@@ -13580,7 +13578,7 @@
         <v>17406</v>
       </c>
       <c r="C57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D57" t="s">
         <v>324</v>
@@ -13594,7 +13592,7 @@
         <v>18452</v>
       </c>
       <c r="C58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D58" t="s">
         <v>324</v>
@@ -13608,7 +13606,7 @@
         <v>19689</v>
       </c>
       <c r="C59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
         <v>324</v>
@@ -13622,7 +13620,7 @@
         <v>20655</v>
       </c>
       <c r="C60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D60" t="s">
         <v>324</v>
@@ -13636,7 +13634,7 @@
         <v>21683</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" t="s">
         <v>324</v>
@@ -16022,23 +16020,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>534</v>
-      </c>
-      <c r="B232">
-        <v>80492</v>
-      </c>
-      <c r="C232">
-        <v>3042</v>
-      </c>
-      <c r="D232" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B233">
         <v>80566</v>
@@ -16052,7 +16036,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B234">
         <v>80608</v>
@@ -16066,7 +16050,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B235">
         <v>80644</v>
@@ -16080,7 +16064,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B236">
         <v>80663</v>
@@ -16094,7 +16078,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B237">
         <v>80681</v>
@@ -16108,7 +16092,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B238">
         <v>80689</v>
@@ -16122,7 +16106,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B239">
         <v>80694</v>
@@ -16136,7 +16120,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B240">
         <v>80710</v>
@@ -16150,7 +16134,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B241">
         <v>80718</v>
@@ -16164,7 +16148,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B242">
         <v>80723</v>
@@ -16178,7 +16162,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B243">
         <v>80727</v>
@@ -16192,7 +16176,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B244">
         <v>80735</v>
@@ -16206,7 +16190,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B245">
         <v>80743</v>
@@ -16220,7 +16204,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B246">
         <v>80764</v>
@@ -16234,7 +16218,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B247">
         <v>80770</v>
@@ -16262,7 +16246,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B249">
         <v>80791</v>
@@ -16276,7 +16260,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B250">
         <v>80812</v>
@@ -16304,7 +16288,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B252">
         <v>80850</v>
@@ -16318,7 +16302,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B253">
         <v>80876</v>
@@ -16332,7 +16316,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B254">
         <v>80893</v>
@@ -16346,7 +16330,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B255">
         <v>80917</v>
@@ -16360,7 +16344,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B256">
         <v>80936</v>
@@ -16374,7 +16358,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B257">
         <v>80949</v>
@@ -16388,7 +16372,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B258">
         <v>80961</v>
@@ -16402,7 +16386,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B259">
         <v>80973</v>
@@ -16416,7 +16400,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B260">
         <v>80985</v>
@@ -16430,7 +16414,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B261">
         <v>80990</v>
@@ -16444,7 +16428,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B262">
         <v>81145</v>
@@ -16480,7 +16464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16490,19 +16474,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16510,19 +16494,19 @@
         <v>482</v>
       </c>
       <c r="B2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" t="s">
         <v>568</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>569</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>570</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>571</v>
-      </c>
-      <c r="F2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16530,19 +16514,19 @@
         <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" t="s">
         <v>573</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>574</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>575</v>
-      </c>
-      <c r="F3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -16550,19 +16534,19 @@
         <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" t="s">
         <v>570</v>
       </c>
-      <c r="E4" t="s">
-        <v>571</v>
-      </c>
       <c r="F4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -16570,19 +16554,19 @@
         <v>464</v>
       </c>
       <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" t="s">
         <v>578</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>579</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" t="s">
         <v>580</v>
-      </c>
-      <c r="E5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F5" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -16590,19 +16574,19 @@
         <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -16610,19 +16594,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -16634,8 +16618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16645,19 +16629,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -16668,19 +16652,19 @@
         <v>43893</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G2" t="s">
         <v>482</v>
@@ -16691,10 +16675,10 @@
         <v>43894</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D3">
         <v>0.21</v>
@@ -16703,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G3" t="s">
         <v>482</v>
@@ -16714,19 +16698,19 @@
         <v>43895</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4">
         <v>0.2</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G4" t="s">
         <v>482</v>
@@ -16737,19 +16721,19 @@
         <v>43896</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G5" t="s">
         <v>482</v>
@@ -16760,19 +16744,19 @@
         <v>43897</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G6" t="s">
         <v>482</v>
@@ -16783,19 +16767,19 @@
         <v>43898</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G7" t="s">
         <v>482</v>
@@ -16812,13 +16796,13 @@
         <v>0.2</v>
       </c>
       <c r="D8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G8" t="s">
         <v>482</v>
@@ -16829,19 +16813,19 @@
         <v>43900</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D9">
         <v>0.28000000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G9" t="s">
         <v>482</v>
@@ -16864,7 +16848,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G10" t="s">
         <v>482</v>
@@ -16921,16 +16905,16 @@
         <v>43904</v>
       </c>
       <c r="B13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D13">
         <v>0.84</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F13">
         <v>0.66</v>
@@ -16947,7 +16931,7 @@
         <v>6.5</v>
       </c>
       <c r="C14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D14">
         <v>0.42</v>
@@ -17085,13 +17069,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D20">
         <v>0.630000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F20">
         <v>0.68999999999999795</v>
@@ -17108,13 +17092,13 @@
         <v>0.75</v>
       </c>
       <c r="C21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D21">
         <v>0.34999999999999798</v>
       </c>
       <c r="E21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F21">
         <v>1.71</v>
@@ -17160,7 +17144,7 @@
         <v>0.69999999999999896</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F23">
         <v>3.09</v>
@@ -17206,7 +17190,7 @@
         <v>0.56000000000000205</v>
       </c>
       <c r="E25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F25">
         <v>1.05</v>
@@ -17229,7 +17213,7 @@
         <v>0.48999999999999799</v>
       </c>
       <c r="E26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F26">
         <v>0.68999999999999795</v>
@@ -17252,7 +17236,7 @@
         <v>0.14000000000000101</v>
       </c>
       <c r="E27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F27">
         <v>0.87000000000000499</v>
@@ -17266,19 +17250,19 @@
         <v>43919</v>
       </c>
       <c r="B28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C28">
         <v>0.19999999999999901</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G28" t="s">
         <v>482</v>
@@ -17298,7 +17282,7 @@
         <v>0.35000000000000098</v>
       </c>
       <c r="E29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F29">
         <v>0.18</v>
@@ -17315,7 +17299,7 @@
         <v>0.5</v>
       </c>
       <c r="C30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D30">
         <v>0.20999999999999699</v>
@@ -17361,13 +17345,13 @@
         <v>0.125</v>
       </c>
       <c r="C32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D32">
         <v>0.14000000000000101</v>
       </c>
       <c r="E32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F32">
         <v>0.50999999999999801</v>
@@ -17390,7 +17374,7 @@
         <v>0.98</v>
       </c>
       <c r="E33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F33">
         <v>0.50999999999999801</v>
@@ -17407,16 +17391,16 @@
         <v>0.125</v>
       </c>
       <c r="C34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D34">
         <v>0.20999999999999699</v>
       </c>
       <c r="E34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G34" t="s">
         <v>482</v>
@@ -17427,19 +17411,19 @@
         <v>43926</v>
       </c>
       <c r="B35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D35">
         <v>0.21000000000000099</v>
       </c>
       <c r="E35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G35" t="s">
         <v>482</v>
@@ -17453,16 +17437,16 @@
         <v>0.75</v>
       </c>
       <c r="C36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D36">
         <v>0.35000000000000098</v>
       </c>
       <c r="E36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G36" t="s">
         <v>482</v>
@@ -17473,19 +17457,19 @@
         <v>43888</v>
       </c>
       <c r="B37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G37" t="s">
         <v>324</v>
@@ -17496,19 +17480,19 @@
         <v>43889</v>
       </c>
       <c r="B38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G38" t="s">
         <v>324</v>
@@ -17519,19 +17503,19 @@
         <v>43890</v>
       </c>
       <c r="B39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G39" t="s">
         <v>324</v>
@@ -17542,19 +17526,19 @@
         <v>43891</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C40">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G40" t="s">
         <v>324</v>
@@ -17565,19 +17549,19 @@
         <v>43892</v>
       </c>
       <c r="B41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G41" t="s">
         <v>324</v>
@@ -17588,19 +17572,19 @@
         <v>43893</v>
       </c>
       <c r="B42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E42">
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G42" t="s">
         <v>324</v>
@@ -17611,19 +17595,19 @@
         <v>43894</v>
       </c>
       <c r="B43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G43" t="s">
         <v>324</v>
@@ -17637,16 +17621,16 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G44" t="s">
         <v>324</v>
@@ -17657,19 +17641,19 @@
         <v>43896</v>
       </c>
       <c r="B45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G45" t="s">
         <v>324</v>
@@ -17680,19 +17664,19 @@
         <v>43897</v>
       </c>
       <c r="B46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G46" t="s">
         <v>324</v>
@@ -17703,19 +17687,19 @@
         <v>43898</v>
       </c>
       <c r="B47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G47" t="s">
         <v>324</v>
@@ -17726,19 +17710,19 @@
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G48" t="s">
         <v>324</v>
@@ -17749,19 +17733,19 @@
         <v>43900</v>
       </c>
       <c r="B49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G49" t="s">
         <v>324</v>
@@ -17772,19 +17756,19 @@
         <v>43901</v>
       </c>
       <c r="B50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G50" t="s">
         <v>324</v>
@@ -17795,19 +17779,19 @@
         <v>43902</v>
       </c>
       <c r="B51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G51" t="s">
         <v>324</v>
@@ -17818,19 +17802,19 @@
         <v>43903</v>
       </c>
       <c r="B52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D52">
         <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G52" t="s">
         <v>324</v>
@@ -17841,19 +17825,19 @@
         <v>43904</v>
       </c>
       <c r="B53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G53" t="s">
         <v>324</v>
@@ -17864,19 +17848,19 @@
         <v>43905</v>
       </c>
       <c r="B54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G54" t="s">
         <v>324</v>
@@ -17887,19 +17871,19 @@
         <v>43906</v>
       </c>
       <c r="B55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G55" t="s">
         <v>324</v>
@@ -17910,16 +17894,16 @@
         <v>43907</v>
       </c>
       <c r="B56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E56" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -17933,19 +17917,19 @@
         <v>43908</v>
       </c>
       <c r="B57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G57" t="s">
         <v>324</v>
@@ -17956,19 +17940,19 @@
         <v>43909</v>
       </c>
       <c r="B58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G58" t="s">
         <v>324</v>
@@ -17979,19 +17963,19 @@
         <v>43910</v>
       </c>
       <c r="B59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G59" t="s">
         <v>324</v>
@@ -18002,19 +17986,19 @@
         <v>43911</v>
       </c>
       <c r="B60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G60" t="s">
         <v>324</v>
@@ -18025,19 +18009,19 @@
         <v>43912</v>
       </c>
       <c r="B61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G61" t="s">
         <v>324</v>
@@ -18048,19 +18032,19 @@
         <v>43888</v>
       </c>
       <c r="B62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F62" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G62" t="s">
         <v>311</v>
@@ -18071,19 +18055,19 @@
         <v>43889</v>
       </c>
       <c r="B63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G63" t="s">
         <v>311</v>
@@ -18097,10 +18081,10 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -18117,19 +18101,19 @@
         <v>43891</v>
       </c>
       <c r="B65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G65" t="s">
         <v>311</v>
@@ -18140,19 +18124,19 @@
         <v>43892</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G66" t="s">
         <v>311</v>
@@ -18163,16 +18147,16 @@
         <v>43893</v>
       </c>
       <c r="B67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E67" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -18186,19 +18170,19 @@
         <v>43894</v>
       </c>
       <c r="B68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G68" t="s">
         <v>311</v>
@@ -18209,19 +18193,19 @@
         <v>43895</v>
       </c>
       <c r="B69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
         <v>311</v>
@@ -18232,16 +18216,16 @@
         <v>43896</v>
       </c>
       <c r="B70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D70">
         <v>0.5</v>
       </c>
       <c r="E70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -18255,19 +18239,19 @@
         <v>43897</v>
       </c>
       <c r="B71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G71" t="s">
         <v>311</v>
@@ -18278,13 +18262,13 @@
         <v>43898</v>
       </c>
       <c r="B72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -18301,10 +18285,10 @@
         <v>43899</v>
       </c>
       <c r="B73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D73">
         <v>0.5</v>
@@ -18313,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
         <v>311</v>
@@ -18324,19 +18308,19 @@
         <v>43900</v>
       </c>
       <c r="B74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G74" t="s">
         <v>311</v>
@@ -18347,10 +18331,10 @@
         <v>43901</v>
       </c>
       <c r="B75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D75">
         <v>6.5</v>
@@ -18359,7 +18343,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G75" t="s">
         <v>311</v>
@@ -18370,19 +18354,19 @@
         <v>43902</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G76" t="s">
         <v>311</v>
@@ -18393,19 +18377,19 @@
         <v>43903</v>
       </c>
       <c r="B77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D77">
         <v>0.5</v>
       </c>
       <c r="E77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G77" t="s">
         <v>311</v>
@@ -18416,19 +18400,19 @@
         <v>43904</v>
       </c>
       <c r="B78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -18439,19 +18423,19 @@
         <v>43905</v>
       </c>
       <c r="B79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G79" t="s">
         <v>311</v>
@@ -18462,19 +18446,19 @@
         <v>43906</v>
       </c>
       <c r="B80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G80" t="s">
         <v>311</v>
@@ -18485,19 +18469,19 @@
         <v>43907</v>
       </c>
       <c r="B81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C81">
         <v>4.2900001300000001</v>
       </c>
       <c r="D81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G81" t="s">
         <v>311</v>
@@ -18508,19 +18492,19 @@
         <v>43908</v>
       </c>
       <c r="B82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G82" t="s">
         <v>311</v>
@@ -18531,19 +18515,19 @@
         <v>43909</v>
       </c>
       <c r="B83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C83">
         <v>0.34000001000000002</v>
       </c>
       <c r="D83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G83" t="s">
         <v>311</v>
@@ -18554,19 +18538,19 @@
         <v>43910</v>
       </c>
       <c r="B84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G84" t="s">
         <v>311</v>
@@ -18577,19 +18561,19 @@
         <v>43911</v>
       </c>
       <c r="B85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C85">
         <v>0.34000001000000102</v>
       </c>
       <c r="D85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G85" t="s">
         <v>311</v>
@@ -18600,19 +18584,19 @@
         <v>43912</v>
       </c>
       <c r="B86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G86" t="s">
         <v>311</v>
@@ -18623,19 +18607,19 @@
         <v>43913</v>
       </c>
       <c r="B87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C87">
         <v>8.0299998499999994</v>
       </c>
       <c r="D87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G87" t="s">
         <v>311</v>
@@ -18646,19 +18630,19 @@
         <v>43914</v>
       </c>
       <c r="B88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G88" t="s">
         <v>311</v>
@@ -18669,19 +18653,19 @@
         <v>43915</v>
       </c>
       <c r="B89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G89" t="s">
         <v>311</v>
@@ -18692,19 +18676,19 @@
         <v>43878</v>
       </c>
       <c r="B90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G90" t="s">
         <v>464</v>
@@ -18715,19 +18699,19 @@
         <v>43879</v>
       </c>
       <c r="B91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G91" t="s">
         <v>464</v>
@@ -18738,19 +18722,19 @@
         <v>43880</v>
       </c>
       <c r="B92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G92" t="s">
         <v>464</v>
@@ -18761,19 +18745,19 @@
         <v>43881</v>
       </c>
       <c r="B93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G93" t="s">
         <v>464</v>
@@ -18784,19 +18768,19 @@
         <v>43882</v>
       </c>
       <c r="B94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G94" t="s">
         <v>464</v>
@@ -18807,19 +18791,19 @@
         <v>43883</v>
       </c>
       <c r="B95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G95" t="s">
         <v>464</v>
@@ -18830,19 +18814,19 @@
         <v>43884</v>
       </c>
       <c r="B96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G96" t="s">
         <v>464</v>
@@ -18853,19 +18837,19 @@
         <v>43885</v>
       </c>
       <c r="B97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G97" t="s">
         <v>464</v>
@@ -18876,19 +18860,19 @@
         <v>43886</v>
       </c>
       <c r="B98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G98" t="s">
         <v>464</v>
@@ -18899,19 +18883,19 @@
         <v>43887</v>
       </c>
       <c r="B99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G99" t="s">
         <v>464</v>
@@ -18922,19 +18906,19 @@
         <v>43888</v>
       </c>
       <c r="B100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G100" t="s">
         <v>464</v>
@@ -18945,19 +18929,19 @@
         <v>43889</v>
       </c>
       <c r="B101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G101" t="s">
         <v>464</v>
@@ -18968,19 +18952,19 @@
         <v>43890</v>
       </c>
       <c r="B102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D102">
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G102" t="s">
         <v>464</v>
@@ -18991,19 +18975,19 @@
         <v>43891</v>
       </c>
       <c r="B103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G103" t="s">
         <v>464</v>
@@ -19014,19 +18998,19 @@
         <v>43892</v>
       </c>
       <c r="B104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G104" t="s">
         <v>464</v>
@@ -19037,19 +19021,19 @@
         <v>43893</v>
       </c>
       <c r="B105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G105" t="s">
         <v>464</v>
@@ -19060,19 +19044,19 @@
         <v>43894</v>
       </c>
       <c r="B106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G106" t="s">
         <v>464</v>
@@ -19083,19 +19067,19 @@
         <v>43895</v>
       </c>
       <c r="B107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F107" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G107" t="s">
         <v>464</v>
@@ -19106,19 +19090,19 @@
         <v>43896</v>
       </c>
       <c r="B108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G108" t="s">
         <v>464</v>
@@ -19129,19 +19113,19 @@
         <v>43897</v>
       </c>
       <c r="B109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F109" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G109" t="s">
         <v>464</v>
@@ -19152,19 +19136,19 @@
         <v>43898</v>
       </c>
       <c r="B110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G110" t="s">
         <v>464</v>
@@ -19175,19 +19159,19 @@
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G111" t="s">
         <v>464</v>
@@ -19198,19 +19182,19 @@
         <v>43900</v>
       </c>
       <c r="B112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G112" t="s">
         <v>464</v>
@@ -19221,16 +19205,16 @@
         <v>43901</v>
       </c>
       <c r="B113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -19244,19 +19228,19 @@
         <v>43902</v>
       </c>
       <c r="B114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G114" t="s">
         <v>464</v>
@@ -19267,19 +19251,19 @@
         <v>43903</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F115" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G115" t="s">
         <v>464</v>
@@ -19290,19 +19274,19 @@
         <v>43904</v>
       </c>
       <c r="B116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G116" t="s">
         <v>464</v>
@@ -19316,16 +19300,16 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F117" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G117" t="s">
         <v>464</v>
@@ -19336,19 +19320,19 @@
         <v>43906</v>
       </c>
       <c r="B118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G118" t="s">
         <v>464</v>
@@ -19359,19 +19343,19 @@
         <v>43907</v>
       </c>
       <c r="B119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G119" t="s">
         <v>464</v>
@@ -19382,16 +19366,16 @@
         <v>43908</v>
       </c>
       <c r="B120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -19405,19 +19389,19 @@
         <v>43909</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G121" t="s">
         <v>464</v>
@@ -19428,19 +19412,19 @@
         <v>43910</v>
       </c>
       <c r="B122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G122" t="s">
         <v>464</v>
@@ -19451,19 +19435,19 @@
         <v>43911</v>
       </c>
       <c r="B123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G123" t="s">
         <v>464</v>
@@ -19474,19 +19458,19 @@
         <v>43912</v>
       </c>
       <c r="B124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G124" t="s">
         <v>464</v>
@@ -19497,19 +19481,19 @@
         <v>43913</v>
       </c>
       <c r="B125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G125" t="s">
         <v>464</v>
@@ -19520,19 +19504,19 @@
         <v>43914</v>
       </c>
       <c r="B126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G126" t="s">
         <v>464</v>
@@ -19543,19 +19527,19 @@
         <v>43915</v>
       </c>
       <c r="B127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G127" t="s">
         <v>464</v>
@@ -19566,19 +19550,19 @@
         <v>43916</v>
       </c>
       <c r="B128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G128" t="s">
         <v>464</v>
@@ -19589,19 +19573,19 @@
         <v>43917</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G129" t="s">
         <v>464</v>
@@ -19612,19 +19596,19 @@
         <v>43918</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G130" t="s">
         <v>464</v>
@@ -19635,19 +19619,19 @@
         <v>43919</v>
       </c>
       <c r="B131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G131" t="s">
         <v>464</v>
@@ -19658,19 +19642,19 @@
         <v>43920</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G132" t="s">
         <v>464</v>
@@ -19681,19 +19665,19 @@
         <v>43921</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G133" t="s">
         <v>464</v>
@@ -19704,19 +19688,19 @@
         <v>43922</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G134" t="s">
         <v>464</v>
@@ -19727,19 +19711,19 @@
         <v>43923</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G135" t="s">
         <v>464</v>
@@ -19750,19 +19734,19 @@
         <v>43924</v>
       </c>
       <c r="B136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G136" t="s">
         <v>464</v>
@@ -19773,19 +19757,19 @@
         <v>43925</v>
       </c>
       <c r="B137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G137" t="s">
         <v>464</v>
@@ -19796,19 +19780,19 @@
         <v>43926</v>
       </c>
       <c r="B138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G138" t="s">
         <v>464</v>
@@ -19819,19 +19803,19 @@
         <v>43927</v>
       </c>
       <c r="B139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G139" t="s">
         <v>464</v>
@@ -19845,16 +19829,16 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G140" t="s">
         <v>357</v>
@@ -19868,16 +19852,16 @@
         <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G141" t="s">
         <v>357</v>
@@ -19891,16 +19875,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G142" t="s">
         <v>357</v>
@@ -19911,19 +19895,19 @@
         <v>43889</v>
       </c>
       <c r="B143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G143" t="s">
         <v>357</v>
@@ -19937,16 +19921,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G144" t="s">
         <v>357</v>
@@ -19960,16 +19944,16 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G145" t="s">
         <v>357</v>
@@ -19980,19 +19964,19 @@
         <v>43892</v>
       </c>
       <c r="B146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G146" t="s">
         <v>357</v>
@@ -20003,19 +19987,19 @@
         <v>43893</v>
       </c>
       <c r="B147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F147" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G147" t="s">
         <v>357</v>
@@ -20026,19 +20010,19 @@
         <v>43894</v>
       </c>
       <c r="B148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G148" t="s">
         <v>357</v>
@@ -20052,16 +20036,16 @@
         <v>56</v>
       </c>
       <c r="C149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G149" t="s">
         <v>357</v>
@@ -20072,19 +20056,19 @@
         <v>43896</v>
       </c>
       <c r="B150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G150" t="s">
         <v>357</v>
@@ -20095,19 +20079,19 @@
         <v>43897</v>
       </c>
       <c r="B151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G151" t="s">
         <v>357</v>
@@ -20118,7 +20102,7 @@
         <v>43898</v>
       </c>
       <c r="B152" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C152">
         <v>105</v>
@@ -20141,19 +20125,19 @@
         <v>43899</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G153" t="s">
         <v>357</v>
@@ -20164,10 +20148,10 @@
         <v>43900</v>
       </c>
       <c r="B154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D154">
         <v>41.5</v>
@@ -20176,7 +20160,7 @@
         <v>27.72</v>
       </c>
       <c r="F154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G154" t="s">
         <v>357</v>
@@ -20187,19 +20171,19 @@
         <v>43901</v>
       </c>
       <c r="B155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E155">
         <v>36.380000000000003</v>
       </c>
       <c r="F155" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G155" t="s">
         <v>357</v>
@@ -20210,19 +20194,19 @@
         <v>43902</v>
       </c>
       <c r="B156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G156" t="s">
         <v>357</v>
@@ -20233,19 +20217,19 @@
         <v>43903</v>
       </c>
       <c r="B157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G157" t="s">
         <v>357</v>
@@ -20256,19 +20240,19 @@
         <v>43904</v>
       </c>
       <c r="B158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F158" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G158" t="s">
         <v>357</v>
@@ -20279,19 +20263,19 @@
         <v>43905</v>
       </c>
       <c r="B159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F159" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G159" t="s">
         <v>357</v>
@@ -20302,19 +20286,19 @@
         <v>43906</v>
       </c>
       <c r="B160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G160" t="s">
         <v>357</v>
@@ -20325,19 +20309,19 @@
         <v>43907</v>
       </c>
       <c r="B161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G161" t="s">
         <v>357</v>
@@ -20348,19 +20332,19 @@
         <v>43908</v>
       </c>
       <c r="B162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F162" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G162" t="s">
         <v>357</v>
@@ -20371,19 +20355,19 @@
         <v>43909</v>
       </c>
       <c r="B163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F163" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G163" t="s">
         <v>357</v>
@@ -20394,19 +20378,19 @@
         <v>43910</v>
       </c>
       <c r="B164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G164" t="s">
         <v>357</v>
@@ -20417,19 +20401,19 @@
         <v>43911</v>
       </c>
       <c r="B165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F165" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G165" t="s">
         <v>357</v>
@@ -20440,10 +20424,10 @@
         <v>43912</v>
       </c>
       <c r="B166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D166">
         <v>53.5</v>
@@ -20452,7 +20436,7 @@
         <v>3.9600000000000102</v>
       </c>
       <c r="F166" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G166" t="s">
         <v>357</v>
@@ -20463,19 +20447,19 @@
         <v>43913</v>
       </c>
       <c r="B167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F167" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G167" t="s">
         <v>357</v>
@@ -20486,19 +20470,19 @@
         <v>43914</v>
       </c>
       <c r="B168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G168" t="s">
         <v>357</v>
@@ -20509,19 +20493,19 @@
         <v>43915</v>
       </c>
       <c r="B169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F169" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G169" t="s">
         <v>357</v>
@@ -20532,19 +20516,19 @@
         <v>43916</v>
       </c>
       <c r="B170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G170" t="s">
         <v>357</v>
@@ -20555,19 +20539,19 @@
         <v>43917</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G171" t="s">
         <v>357</v>
@@ -20578,19 +20562,19 @@
         <v>43918</v>
       </c>
       <c r="B172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G172" t="s">
         <v>357</v>
@@ -20601,19 +20585,19 @@
         <v>43919</v>
       </c>
       <c r="B173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F173" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G173" t="s">
         <v>357</v>
@@ -20624,19 +20608,19 @@
         <v>43920</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G174" t="s">
         <v>357</v>
@@ -20647,19 +20631,19 @@
         <v>43921</v>
       </c>
       <c r="B175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G175" t="s">
         <v>357</v>
@@ -20670,19 +20654,19 @@
         <v>43922</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G176" t="s">
         <v>357</v>
@@ -20693,19 +20677,19 @@
         <v>43923</v>
       </c>
       <c r="B177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G177" t="s">
         <v>357</v>
@@ -20716,19 +20700,19 @@
         <v>43924</v>
       </c>
       <c r="B178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G178" t="s">
         <v>357</v>
@@ -20739,19 +20723,19 @@
         <v>43925</v>
       </c>
       <c r="B179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G179" t="s">
         <v>357</v>
@@ -20762,19 +20746,19 @@
         <v>43926</v>
       </c>
       <c r="B180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F180" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G180" t="s">
         <v>357</v>
@@ -20785,19 +20769,19 @@
         <v>43927</v>
       </c>
       <c r="B181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G181" t="s">
         <v>357</v>
@@ -20808,19 +20792,19 @@
         <v>43846</v>
       </c>
       <c r="B182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G182" t="s">
         <v>7</v>
@@ -20831,19 +20815,19 @@
         <v>43847</v>
       </c>
       <c r="B183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F183" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G183" t="s">
         <v>7</v>
@@ -20854,19 +20838,19 @@
         <v>43848</v>
       </c>
       <c r="B184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G184" t="s">
         <v>7</v>
@@ -20877,19 +20861,19 @@
         <v>43849</v>
       </c>
       <c r="B185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F185" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G185" t="s">
         <v>7</v>
@@ -20900,19 +20884,19 @@
         <v>43850</v>
       </c>
       <c r="B186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F186" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G186" t="s">
         <v>7</v>
@@ -20923,19 +20907,19 @@
         <v>43851</v>
       </c>
       <c r="B187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G187" t="s">
         <v>7</v>
@@ -20946,19 +20930,19 @@
         <v>43852</v>
       </c>
       <c r="B188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F188" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G188" t="s">
         <v>7</v>
@@ -20972,16 +20956,16 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D189">
         <v>31</v>
       </c>
       <c r="E189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F189" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G189" t="s">
         <v>7</v>
@@ -20995,16 +20979,16 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D190">
         <v>168</v>
       </c>
       <c r="E190" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F190" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G190" t="s">
         <v>7</v>
@@ -21015,19 +20999,19 @@
         <v>43855</v>
       </c>
       <c r="B191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D191">
         <v>138</v>
       </c>
       <c r="E191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F191" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G191" t="s">
         <v>7</v>
@@ -21038,19 +21022,19 @@
         <v>43856</v>
       </c>
       <c r="B192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G192" t="s">
         <v>7</v>
@@ -21067,13 +21051,13 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G193" t="s">
         <v>7</v>
@@ -21087,16 +21071,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F194" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G194" t="s">
         <v>7</v>
@@ -21116,10 +21100,10 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F195" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G195" t="s">
         <v>7</v>
@@ -21130,19 +21114,19 @@
         <v>43860</v>
       </c>
       <c r="B196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F196" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G196" t="s">
         <v>7</v>
@@ -21159,13 +21143,13 @@
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G197" t="s">
         <v>7</v>
@@ -21176,19 +21160,19 @@
         <v>43862</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F198" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G198" t="s">
         <v>7</v>
@@ -21205,13 +21189,13 @@
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G199" t="s">
         <v>7</v>
@@ -21228,13 +21212,13 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F200" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G200" t="s">
         <v>7</v>
@@ -21251,13 +21235,13 @@
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G201" t="s">
         <v>7</v>
@@ -21274,13 +21258,13 @@
         <v>33</v>
       </c>
       <c r="D202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G202" t="s">
         <v>7</v>
@@ -21297,13 +21281,13 @@
         <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G203" t="s">
         <v>7</v>
@@ -21320,13 +21304,13 @@
         <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G204" t="s">
         <v>7</v>
@@ -21343,13 +21327,13 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F205" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G205" t="s">
         <v>7</v>
@@ -21366,13 +21350,13 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G206" t="s">
         <v>7</v>
@@ -21389,13 +21373,13 @@
         <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E207" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F207" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G207" t="s">
         <v>7</v>
@@ -21406,19 +21390,19 @@
         <v>43872</v>
       </c>
       <c r="B208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G208" t="s">
         <v>7</v>
@@ -21435,13 +21419,13 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G209" t="s">
         <v>7</v>
@@ -21452,19 +21436,19 @@
         <v>43874</v>
       </c>
       <c r="B210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G210" t="s">
         <v>7</v>
@@ -21475,19 +21459,19 @@
         <v>43875</v>
       </c>
       <c r="B211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G211" t="s">
         <v>7</v>
@@ -21498,19 +21482,19 @@
         <v>43876</v>
       </c>
       <c r="B212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G212" t="s">
         <v>7</v>
@@ -21521,19 +21505,19 @@
         <v>43877</v>
       </c>
       <c r="B213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G213" t="s">
         <v>7</v>
@@ -21544,19 +21528,19 @@
         <v>43878</v>
       </c>
       <c r="B214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F214" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G214" t="s">
         <v>7</v>
@@ -21567,19 +21551,19 @@
         <v>43879</v>
       </c>
       <c r="B215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F215" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G215" t="s">
         <v>7</v>
@@ -21590,19 +21574,19 @@
         <v>43880</v>
       </c>
       <c r="B216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G216" t="s">
         <v>7</v>
@@ -21613,19 +21597,19 @@
         <v>43881</v>
       </c>
       <c r="B217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G217" t="s">
         <v>7</v>
@@ -21636,19 +21620,19 @@
         <v>43882</v>
       </c>
       <c r="B218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G218" t="s">
         <v>7</v>
@@ -21659,19 +21643,19 @@
         <v>43883</v>
       </c>
       <c r="B219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G219" t="s">
         <v>7</v>
@@ -21682,19 +21666,19 @@
         <v>43884</v>
       </c>
       <c r="B220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G220" t="s">
         <v>7</v>
@@ -21705,19 +21689,19 @@
         <v>43885</v>
       </c>
       <c r="B221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G221" t="s">
         <v>7</v>
@@ -21728,19 +21712,19 @@
         <v>43886</v>
       </c>
       <c r="B222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G222" t="s">
         <v>7</v>
@@ -21751,19 +21735,19 @@
         <v>43887</v>
       </c>
       <c r="B223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G223" t="s">
         <v>7</v>
@@ -21774,19 +21758,19 @@
         <v>43888</v>
       </c>
       <c r="B224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G224" t="s">
         <v>7</v>
@@ -21797,19 +21781,19 @@
         <v>43889</v>
       </c>
       <c r="B225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G225" t="s">
         <v>7</v>
@@ -21820,19 +21804,19 @@
         <v>43890</v>
       </c>
       <c r="B226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F226" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G226" t="s">
         <v>7</v>
@@ -21843,19 +21827,19 @@
         <v>43891</v>
       </c>
       <c r="B227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G227" t="s">
         <v>7</v>
@@ -21866,19 +21850,19 @@
         <v>43892</v>
       </c>
       <c r="B228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F228" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G228" t="s">
         <v>7</v>
@@ -21889,19 +21873,19 @@
         <v>43893</v>
       </c>
       <c r="B229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F229" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G229" t="s">
         <v>7</v>
@@ -21912,19 +21896,19 @@
         <v>43894</v>
       </c>
       <c r="B230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F230" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G230" t="s">
         <v>7</v>
@@ -21935,19 +21919,19 @@
         <v>43895</v>
       </c>
       <c r="B231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F231" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G231" t="s">
         <v>7</v>
